--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ComptrollerSourceGroupProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ComptrollerSourceGroupProfile_AddNewProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98193D73-D586-4634-A5C5-F569E2B1991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD6AFE1-0B5E-4FC5-81C3-9BA907AFE191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18780" windowHeight="9910" xr2:uid="{E48E3DD6-0E9A-4FCA-89BE-6D5DDCF154A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E48E3DD6-0E9A-4FCA-89BE-6D5DDCF154A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -611,21 +611,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67FE2C5-0520-49C6-94B1-F01BCA1A7D63}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -659,7 +659,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -727,7 +727,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -755,7 +755,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="3"/>
@@ -798,19 +798,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E840CE84-E5D9-4CFB-918D-9A37B53B878D}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="8" max="9" width="13.7265625" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="8" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -842,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
